--- a/SecurityReview/GiftcardSecurityControlReview.xlsx
+++ b/SecurityReview/GiftcardSecurityControlReview.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t xml:space="preserve">CIS Benchmark</t>
   </si>
@@ -184,7 +184,7 @@
     <t xml:space="preserve">The Giftcard site, proxy and MySQL docker containers are all running as root. The Giftcard site and Proxy Dockerfiles create users but the user is never switched. Remediation should be performed on the Giftcard site and proxy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Modify</t>
+    <t xml:space="preserve">Modify dockerfiles for the Giftcard site and Proxy to create a non-root user and switch to that user so it will not be run as root in the kubernetes deployement.</t>
   </si>
   <si>
     <t xml:space="preserve">https://docs.docker.com/develop/develop-images/dockerfile_best-practices/</t>
@@ -318,12 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
+        <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
@@ -362,7 +362,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,23 +395,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -444,12 +468,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF1155CC"/>
-      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -495,13 +519,15 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="2:21"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="68.86"/>
@@ -572,26 +598,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="86.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="14" customFormat="true" ht="86.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -618,26 +644,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="14" customFormat="true" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="74.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -662,26 +688,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="74.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="14" customFormat="true" ht="74.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -708,26 +734,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="14" customFormat="true" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -754,26 +780,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="98.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" s="14" customFormat="true" ht="98.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -800,24 +826,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+    <row r="13" s="14" customFormat="true" ht="25.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="16" t="n">
         <v>4.2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -836,26 +864,26 @@
         <v>59</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="16" t="n">
         <v>4.9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -874,26 +902,26 @@
         <v>63</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="16" t="n">
         <v>1.2</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="50" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -912,26 +940,26 @@
         <v>68</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="16" t="n">
         <v>2.7</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -950,34 +978,34 @@
         <v>72</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" s="14" customFormat="true" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="16" t="n">
         <v>4.2</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="13"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="F23" s="7"/>
